--- a/uploads/contacts_template.xlsx
+++ b/uploads/contacts_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinashebutsa/Documents/Other/Projects/star_international/python-whatsapp-bot/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC16AD46-6F5E-894C-A899-BFCD2202982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB514A3E-3C48-40E6-A723-35DE03BAFC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -28,10 +28,16 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Tinashe Butsa</t>
-  </si>
-  <si>
-    <t>+263715775261</t>
+    <t>Stanier Muchini</t>
+  </si>
+  <si>
+    <t>+79999171644</t>
+  </si>
+  <si>
+    <t>+263778524824</t>
+  </si>
+  <si>
+    <t>Stan Machine</t>
   </si>
 </sst>
 </file>
@@ -403,19 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,12 +429,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
